--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_AREPD_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_AREPD_General.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>N_Calib_1</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Sí</t>
   </si>
 </sst>
 </file>
@@ -441,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.06950859656259088</v>
+        <v>-0.059581607674993</v>
       </c>
       <c r="D2">
-        <v>0.9445875482221011</v>
+        <v>0.9528377021102681</v>
       </c>
       <c r="E2">
         <v>4.214637532725376</v>
@@ -467,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.5563089780799531</v>
+        <v>-0.4437522355803322</v>
       </c>
       <c r="D3">
-        <v>0.5780243527463371</v>
+        <v>0.6600330405732944</v>
       </c>
       <c r="E3">
         <v>4.214637532725376</v>
@@ -493,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-2.190244686478393</v>
+        <v>-1.642135851615539</v>
       </c>
       <c r="D4">
-        <v>0.02855216699437557</v>
+        <v>0.1097806223864255</v>
       </c>
       <c r="E4">
         <v>4.214637532725376</v>
@@ -505,7 +502,7 @@
         <v>5.046166218193762</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>20</v>
@@ -519,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-1.074153260660448</v>
+        <v>-0.7807899629386806</v>
       </c>
       <c r="D5">
-        <v>0.2828054295269278</v>
+        <v>0.4403286993368472</v>
       </c>
       <c r="E5">
         <v>4.214637532725376</v>
@@ -545,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.4619379345297944</v>
+        <v>-0.6180416264975495</v>
       </c>
       <c r="D6">
-        <v>0.6441457714490424</v>
+        <v>0.5406660986549472</v>
       </c>
       <c r="E6">
         <v>4.246999831506885</v>
@@ -571,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-1.506370356230309</v>
+        <v>-1.406174053278537</v>
       </c>
       <c r="D7">
-        <v>0.132034808544762</v>
+        <v>0.1687464802114129</v>
       </c>
       <c r="E7">
         <v>4.246999831506885</v>
@@ -597,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-0.8994888650103152</v>
+        <v>-1.205535294137002</v>
       </c>
       <c r="D8">
-        <v>0.3684353055508209</v>
+        <v>0.236319923755633</v>
       </c>
       <c r="E8">
         <v>4.246999831506885</v>
@@ -623,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-0.9608092516334192</v>
+        <v>-0.9258530667893199</v>
       </c>
       <c r="D9">
-        <v>0.3366941864580619</v>
+        <v>0.3610478134327813</v>
       </c>
       <c r="E9">
         <v>4.495331602182135</v>
@@ -649,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.5437936456316966</v>
+        <v>-1.015308123923763</v>
       </c>
       <c r="D10">
-        <v>0.5866075395724346</v>
+        <v>0.3171299568483601</v>
       </c>
       <c r="E10">
         <v>4.495331602182135</v>
@@ -675,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>0.4953039473545157</v>
+        <v>0.3800366867707264</v>
       </c>
       <c r="D11">
-        <v>0.6204071825641684</v>
+        <v>0.7062819384069263</v>
       </c>
       <c r="E11">
         <v>5.046166218193762</v>
